--- a/reports/Debug-snowbowl-20251217/Week Total (Prior Year)_Payroll_history.xlsx
+++ b/reports/Debug-snowbowl-20251217/Week Total (Prior Year)_Payroll_history.xlsx
@@ -19,6 +19,12 @@
     <t>department</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D9001</t>
+  </si>
+  <si>
     <t>D1010</t>
   </si>
   <si>
@@ -34,6 +40,33 @@
     <t>D9012</t>
   </si>
   <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
     <t>D1000</t>
   </si>
   <si>
@@ -70,25 +103,19 @@
     <t>D8040</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D9001</t>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
   </si>
   <si>
     <t>D1030</t>
@@ -113,33 +140,6 @@
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
   <si>
     <t>total</t>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>35456.43</v>
+        <v>5494.51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14059.57</v>
+        <v>183.48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3837.62</v>
+        <v>35456.43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>6154.70</v>
+        <v>14059.57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>331.00</v>
+        <v>3837.62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6280.89</v>
+        <v>6154.70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4272.03</v>
+        <v>331.00</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1460.06</v>
+        <v>9117.47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2449.84</v>
+        <v>3520.70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2115.40</v>
+        <v>5779.42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>4284.04</v>
+        <v>66.60</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>18266.51</v>
+        <v>882.51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>6499.71</v>
+        <v>124717.64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2978.08</v>
+        <v>1537.70</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>6158.12</v>
+        <v>6517.28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>842.67</v>
+        <v>5068.27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>3567.71</v>
+        <v>6280.89</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>9117.47</v>
+        <v>4272.03</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>3520.70</v>
+        <v>1460.06</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>5779.42</v>
+        <v>2449.84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>66.60</v>
+        <v>2115.40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>882.51</v>
+        <v>4284.04</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>5494.51</v>
+        <v>18266.51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>183.48</v>
+        <v>6499.71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>11109.54</v>
+        <v>2978.08</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>2526.83</v>
+        <v>6158.12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +736,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>1233.55</v>
+        <v>842.67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +744,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>8888.07</v>
+        <v>3567.71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +752,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>1021.49</v>
+        <v>20464.21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +760,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>3741.55</v>
+        <v>14604.92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>6359.67</v>
+        <v>2218.80</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +776,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>733.16</v>
+        <v>1997.87</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +784,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>124717.64</v>
+        <v>4896.34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +792,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>1537.70</v>
+        <v>11109.54</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +800,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>6517.28</v>
+        <v>2526.83</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +808,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>5068.27</v>
+        <v>1233.55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +816,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>20464.21</v>
+        <v>8888.07</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +824,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>14604.92</v>
+        <v>1021.49</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +832,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>2218.80</v>
+        <v>3741.55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>1997.87</v>
+        <v>6359.67</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +848,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>4896.34</v>
+        <v>733.16</v>
       </c>
     </row>
   </sheetData>
